--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>0.1516982636238889</v>
+        <v>0.443020821147</v>
       </c>
       <c r="R2">
-        <v>1.365284372615</v>
+        <v>3.987187390323</v>
       </c>
       <c r="S2">
-        <v>0.004207096093966305</v>
+        <v>0.009418920698748055</v>
       </c>
       <c r="T2">
-        <v>0.004207096093966306</v>
+        <v>0.009418920698748058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>0.502967278625111</v>
+        <v>0.732051945566</v>
       </c>
       <c r="R3">
-        <v>4.526705507626</v>
+        <v>6.588467510093999</v>
       </c>
       <c r="S3">
-        <v>0.0139489511794474</v>
+        <v>0.01556391684887083</v>
       </c>
       <c r="T3">
-        <v>0.0139489511794474</v>
+        <v>0.01556391684887083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>0.04544510609911111</v>
+        <v>0.09838862781899999</v>
       </c>
       <c r="R4">
-        <v>0.409005954892</v>
+        <v>0.8854976503709999</v>
       </c>
       <c r="S4">
-        <v>0.001260343551680221</v>
+        <v>0.002091808418138212</v>
       </c>
       <c r="T4">
-        <v>0.001260343551680222</v>
+        <v>0.002091808418138213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>24.231544</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.001532328152444444</v>
+        <v>11.425924173864</v>
       </c>
       <c r="R5">
-        <v>0.013790953372</v>
+        <v>102.833317564776</v>
       </c>
       <c r="S5">
-        <v>4.249654301124401E-05</v>
+        <v>0.2429228346986061</v>
       </c>
       <c r="T5">
-        <v>4.249654301124401E-05</v>
+        <v>0.2429228346986061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>5.694426301968889</v>
+        <v>18.88030905570311</v>
       </c>
       <c r="R6">
-        <v>51.24983671772</v>
+        <v>169.922781501328</v>
       </c>
       <c r="S6">
-        <v>0.1579253320380105</v>
+        <v>0.4014080722055169</v>
       </c>
       <c r="T6">
-        <v>0.1579253320380106</v>
+        <v>0.401408072205517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>18.88030905570311</v>
+        <v>2.537535364861333</v>
       </c>
       <c r="R7">
-        <v>169.922781501328</v>
+        <v>22.837818283752</v>
       </c>
       <c r="S7">
-        <v>0.5236136036340016</v>
+        <v>0.05394970897759905</v>
       </c>
       <c r="T7">
-        <v>0.5236136036340016</v>
+        <v>0.05394970897759906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.077181333333334</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H8">
-        <v>24.231544</v>
+        <v>8.693237</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2112013333333334</v>
+        <v>1.414593</v>
       </c>
       <c r="N8">
-        <v>0.6336040000000001</v>
+        <v>4.243779</v>
       </c>
       <c r="O8">
-        <v>0.0647695589083904</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P8">
-        <v>0.06476955890839041</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q8">
-        <v>1.705911467175111</v>
+        <v>4.099130735847</v>
       </c>
       <c r="R8">
-        <v>15.353203204576</v>
+        <v>36.892176622623</v>
       </c>
       <c r="S8">
-        <v>0.04731058417384906</v>
+        <v>0.08715027712418187</v>
       </c>
       <c r="T8">
-        <v>0.04731058417384907</v>
+        <v>0.08715027712418189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.077181333333334</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H9">
-        <v>24.231544</v>
+        <v>8.693237</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.007121333333333333</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N9">
-        <v>0.021364</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q9">
-        <v>0.05752030066844444</v>
+        <v>6.773443791054889</v>
       </c>
       <c r="R9">
-        <v>0.517682706016</v>
+        <v>60.960994119494</v>
       </c>
       <c r="S9">
-        <v>0.001595228755326847</v>
+        <v>0.1440079718154019</v>
       </c>
       <c r="T9">
-        <v>0.001595228755326847</v>
+        <v>0.1440079718154019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7050016666666666</v>
+        <v>0.314161</v>
       </c>
       <c r="N10">
-        <v>2.115005</v>
+        <v>0.942483</v>
       </c>
       <c r="O10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q10">
-        <v>1.583689893938889</v>
+        <v>0.9103586763856666</v>
       </c>
       <c r="R10">
-        <v>14.25320904545</v>
+        <v>8.193228087470999</v>
       </c>
       <c r="S10">
-        <v>0.04392097449027748</v>
+        <v>0.01935483790150955</v>
       </c>
       <c r="T10">
-        <v>0.04392097449027749</v>
+        <v>0.01935483790150955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>0.83741</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.337487333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N11">
-        <v>7.012461999999999</v>
+        <v>4.243779</v>
       </c>
       <c r="O11">
-        <v>0.716842176819984</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P11">
-        <v>0.716842176819984</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q11">
-        <v>5.250845837731111</v>
+        <v>0.39486477471</v>
       </c>
       <c r="R11">
-        <v>47.25761253957999</v>
+        <v>3.55378297239</v>
       </c>
       <c r="S11">
-        <v>0.1456233742312856</v>
+        <v>0.008395090754636176</v>
       </c>
       <c r="T11">
-        <v>0.1456233742312856</v>
+        <v>0.008395090754636179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>0.83741</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2112013333333334</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N12">
-        <v>0.6336040000000001</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O12">
-        <v>0.0647695589083904</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P12">
-        <v>0.06476955890839041</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q12">
-        <v>0.4744349311511112</v>
+        <v>0.6524784226022221</v>
       </c>
       <c r="R12">
-        <v>4.26991438036</v>
+        <v>5.87230580342</v>
       </c>
       <c r="S12">
-        <v>0.01315765453081093</v>
+        <v>0.01387213021776994</v>
       </c>
       <c r="T12">
-        <v>0.01315765453081093</v>
+        <v>0.01387213021776994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,303 +1210,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>0.83741</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.007121333333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N13">
-        <v>0.021364</v>
+        <v>0.942483</v>
       </c>
       <c r="O13">
-        <v>0.002183914332167809</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P13">
-        <v>0.002183914332167809</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q13">
-        <v>0.01599710208444444</v>
+        <v>0.08769385433666665</v>
       </c>
       <c r="R13">
-        <v>0.14397391876</v>
+        <v>0.78924468903</v>
       </c>
       <c r="S13">
-        <v>0.0004436527095729268</v>
+        <v>0.001864430339021369</v>
       </c>
       <c r="T13">
-        <v>0.0004436527095729268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.519176</v>
-      </c>
-      <c r="H14">
-        <v>1.557528</v>
-      </c>
-      <c r="I14">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="J14">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.7050016666666666</v>
-      </c>
-      <c r="N14">
-        <v>2.115005</v>
-      </c>
-      <c r="O14">
-        <v>0.2162043499394578</v>
-      </c>
-      <c r="P14">
-        <v>0.2162043499394578</v>
-      </c>
-      <c r="Q14">
-        <v>0.3660199452933333</v>
-      </c>
-      <c r="R14">
-        <v>3.29417950764</v>
-      </c>
-      <c r="S14">
-        <v>0.01015094731720349</v>
-      </c>
-      <c r="T14">
-        <v>0.01015094731720349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.519176</v>
-      </c>
-      <c r="H15">
-        <v>1.557528</v>
-      </c>
-      <c r="I15">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="J15">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.337487333333333</v>
-      </c>
-      <c r="N15">
-        <v>7.012461999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="P15">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="Q15">
-        <v>1.213567323770667</v>
-      </c>
-      <c r="R15">
-        <v>10.922105913936</v>
-      </c>
-      <c r="S15">
-        <v>0.03365624777524944</v>
-      </c>
-      <c r="T15">
-        <v>0.03365624777524944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.519176</v>
-      </c>
-      <c r="H16">
-        <v>1.557528</v>
-      </c>
-      <c r="I16">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="J16">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.2112013333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.6336040000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.0647695589083904</v>
-      </c>
-      <c r="P16">
-        <v>0.06476955890839041</v>
-      </c>
-      <c r="Q16">
-        <v>0.1096506634346667</v>
-      </c>
-      <c r="R16">
-        <v>0.9868559709119999</v>
-      </c>
-      <c r="S16">
-        <v>0.003040976652050185</v>
-      </c>
-      <c r="T16">
-        <v>0.003040976652050186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.519176</v>
-      </c>
-      <c r="H17">
-        <v>1.557528</v>
-      </c>
-      <c r="I17">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="J17">
-        <v>0.04695070806875992</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.021364</v>
-      </c>
-      <c r="O17">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P17">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q17">
-        <v>0.003697225354666666</v>
-      </c>
-      <c r="R17">
-        <v>0.03327502819199999</v>
-      </c>
-      <c r="S17">
-        <v>0.0001025363242567916</v>
-      </c>
-      <c r="T17">
-        <v>0.0001025363242567916</v>
+        <v>0.00186443033902137</v>
       </c>
     </row>
   </sheetData>
